--- a/artfynd/A 13166-2021.xlsx
+++ b/artfynd/A 13166-2021.xlsx
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>92292339</v>
+        <v>92292346</v>
       </c>
       <c r="B6" t="n">
-        <v>94838</v>
+        <v>95519</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2569</v>
+        <v>221945</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>501414.8559504697</v>
+        <v>501382.1920293955</v>
       </c>
       <c r="R6" t="n">
-        <v>6583200.870330375</v>
+        <v>6583215.121483749</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>92292346</v>
+        <v>92292388</v>
       </c>
       <c r="B7" t="n">
-        <v>95519</v>
+        <v>5113</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221945</v>
+        <v>100526</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>501382.1920293955</v>
+        <v>500996.8850481131</v>
       </c>
       <c r="R7" t="n">
-        <v>6583215.121483749</v>
+        <v>6583358.139040207</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92292388</v>
+        <v>92292339</v>
       </c>
       <c r="B8" t="n">
-        <v>5113</v>
+        <v>94838</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100526</v>
+        <v>2569</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>500996.8850481131</v>
+        <v>501414.8559504697</v>
       </c>
       <c r="R8" t="n">
-        <v>6583358.139040207</v>
+        <v>6583200.870330375</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>

--- a/artfynd/A 13166-2021.xlsx
+++ b/artfynd/A 13166-2021.xlsx
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>92292346</v>
+        <v>92292339</v>
       </c>
       <c r="B6" t="n">
-        <v>95519</v>
+        <v>94838</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221945</v>
+        <v>2569</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>501382.1920293955</v>
+        <v>501414.8559504697</v>
       </c>
       <c r="R6" t="n">
-        <v>6583215.121483749</v>
+        <v>6583200.870330375</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>92292388</v>
+        <v>92292346</v>
       </c>
       <c r="B7" t="n">
-        <v>5113</v>
+        <v>95519</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100526</v>
+        <v>221945</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>500996.8850481131</v>
+        <v>501382.1920293955</v>
       </c>
       <c r="R7" t="n">
-        <v>6583358.139040207</v>
+        <v>6583215.121483749</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92292339</v>
+        <v>92292388</v>
       </c>
       <c r="B8" t="n">
-        <v>94838</v>
+        <v>5113</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2569</v>
+        <v>100526</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>501414.8559504697</v>
+        <v>500996.8850481131</v>
       </c>
       <c r="R8" t="n">
-        <v>6583200.870330375</v>
+        <v>6583358.139040207</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
